--- a/数据整理/stocks/A股/深证主板/002140-东华科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002140-东华科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,481 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002140-东华科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002140-东华科技.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9315</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
@@ -541,112 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202027</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6662</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1326</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,17 +1003,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1163,14 +1043,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.13</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1179,14 +1081,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.74</v>
       </c>
     </row>
   </sheetData>
